--- a/data/output/FV2504_FV2410/UTILMD/55070.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55070.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3772" uniqueCount="322">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="322">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1071,6 +1071,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U169" totalsRowShown="0">
+  <autoFilter ref="A1:U169"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1360,7 +1390,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9546,5 +9579,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55070.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55070.xlsx
@@ -2011,7 +2011,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2375,7 +2375,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2727,7 +2727,7 @@
         <v>284</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3435,7 +3435,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4517,7 +4517,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5215,7 +5215,7 @@
         <v>289</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5419,7 +5419,7 @@
         <v>291</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5629,7 +5629,7 @@
         <v>292</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -5757,52 +5757,52 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="2"/>
       <c r="L76" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M76" s="5" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P76" s="5"/>
+      <c r="P76" s="2"/>
       <c r="Q76" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5925,52 +5925,52 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="2"/>
       <c r="L79" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M79" s="5" t="s">
+      <c r="M79" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O79" s="5" t="s">
+      <c r="O79" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P79" s="5"/>
+      <c r="P79" s="2"/>
       <c r="Q79" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6421,7 +6421,7 @@
         <v>293</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6793,7 +6793,7 @@
         <v>294</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -6921,52 +6921,52 @@
       <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K98" s="5"/>
+      <c r="K98" s="2"/>
       <c r="L98" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M98" s="5" t="s">
+      <c r="M98" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O98" s="5" t="s">
+      <c r="O98" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P98" s="5"/>
+      <c r="P98" s="2"/>
       <c r="Q98" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7411,52 +7411,52 @@
       <c r="V106" s="5"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5" t="s">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K107" s="5"/>
+      <c r="K107" s="2"/>
       <c r="L107" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M107" s="5" t="s">
+      <c r="M107" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O107" s="5" t="s">
+      <c r="O107" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P107" s="5"/>
+      <c r="P107" s="2"/>
       <c r="Q107" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5" t="s">
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V107" s="5"/>
+      <c r="V107" s="2"/>
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="5" t="s">
@@ -7635,52 +7635,52 @@
       <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="2"/>
       <c r="F111" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5" t="s">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K111" s="5"/>
+      <c r="K111" s="2"/>
       <c r="L111" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M111" s="5" t="s">
+      <c r="M111" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O111" s="5" t="s">
+      <c r="O111" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P111" s="5"/>
+      <c r="P111" s="2"/>
       <c r="Q111" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5" t="s">
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V111" s="5"/>
+      <c r="V111" s="2"/>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="5" t="s">
@@ -7881,7 +7881,7 @@
         <v>296</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8009,52 +8009,52 @@
       <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
-      <c r="J118" s="5" t="s">
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K118" s="5"/>
+      <c r="K118" s="2"/>
       <c r="L118" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O118" s="5" t="s">
+      <c r="O118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P118" s="5"/>
+      <c r="P118" s="2"/>
       <c r="Q118" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
-      <c r="U118" s="5" t="s">
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V118" s="5"/>
+      <c r="V118" s="2"/>
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="5" t="s">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8505,7 +8505,7 @@
         <v>297</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -8711,7 +8711,7 @@
         <v>297</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -8917,7 +8917,7 @@
         <v>297</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9123,7 +9123,7 @@
         <v>298</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9495,7 +9495,7 @@
         <v>299</v>
       </c>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9623,52 +9623,52 @@
       <c r="V148" s="5"/>
     </row>
     <row r="149" spans="1:22">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="2"/>
       <c r="F149" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G149" s="5"/>
-      <c r="H149" s="5"/>
-      <c r="I149" s="5"/>
-      <c r="J149" s="5" t="s">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K149" s="5"/>
+      <c r="K149" s="2"/>
       <c r="L149" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M149" s="5" t="s">
+      <c r="M149" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N149" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O149" s="5" t="s">
+      <c r="O149" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="P149" s="5"/>
+      <c r="P149" s="2"/>
       <c r="Q149" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="R149" s="5"/>
-      <c r="S149" s="5"/>
-      <c r="T149" s="5"/>
-      <c r="U149" s="5" t="s">
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V149" s="5"/>
+      <c r="V149" s="2"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="5" t="s">
@@ -9925,7 +9925,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10171,52 +10171,52 @@
       <c r="V158" s="5"/>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K159" s="5"/>
+      <c r="K159" s="2"/>
       <c r="L159" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M159" s="5" t="s">
+      <c r="M159" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O159" s="5" t="s">
+      <c r="O159" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P159" s="5"/>
+      <c r="P159" s="2"/>
       <c r="Q159" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -10395,52 +10395,52 @@
       <c r="V162" s="5"/>
     </row>
     <row r="163" spans="1:22">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="2"/>
       <c r="F163" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G163" s="5"/>
-      <c r="H163" s="5"/>
-      <c r="I163" s="5"/>
-      <c r="J163" s="5" t="s">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K163" s="5"/>
+      <c r="K163" s="2"/>
       <c r="L163" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M163" s="5" t="s">
+      <c r="M163" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O163" s="5" t="s">
+      <c r="O163" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P163" s="5"/>
+      <c r="P163" s="2"/>
       <c r="Q163" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="R163" s="5"/>
-      <c r="S163" s="5"/>
-      <c r="T163" s="5"/>
-      <c r="U163" s="5" t="s">
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V163" s="5"/>
+      <c r="V163" s="2"/>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="5" t="s">
@@ -10619,48 +10619,48 @@
       <c r="V166" s="5"/>
     </row>
     <row r="167" spans="1:22">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="5"/>
-      <c r="D167" s="5" t="s">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="2"/>
       <c r="F167" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G167" s="5"/>
-      <c r="H167" s="5"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="5" t="s">
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K167" s="5"/>
+      <c r="K167" s="2"/>
       <c r="L167" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="M167" s="5" t="s">
+      <c r="M167" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N167" s="5"/>
-      <c r="O167" s="5" t="s">
+      <c r="N167" s="2"/>
+      <c r="O167" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P167" s="5"/>
+      <c r="P167" s="2"/>
       <c r="Q167" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="R167" s="5"/>
-      <c r="S167" s="5"/>
-      <c r="T167" s="5"/>
-      <c r="U167" s="5" t="s">
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="V167" s="5"/>
+      <c r="V167" s="2"/>
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="5" t="s">
